--- a/H2495_FRA/tvd_s3.xlsx
+++ b/H2495_FRA/tvd_s3.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R2ecb8961de2440d7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf5dff638f0a04b15"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -321,14 +321,14 @@
     <x:row r="6">
       <x:c r="A6" s="1" t="inlineStr">
         <x:is>
-          <x:t>Audit Number: 1005</x:t>
+          <x:t>Audit Number: 1086</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" s="2" t="inlineStr">
         <x:is>
-          <x:t>Date: 5/3/2020 Time: 12:21 PM</x:t>
+          <x:t>Date: 5/3/2020 Time: 12:59 PM</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -431,7 +431,7 @@
     <x:row r="19">
       <x:c r="A19" s="12" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S3\SM</x:t>
+          <x:t>H2495_FRA\H2495\S3\EOBO\SM</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -8467,7 +8467,7 @@
     <x:row r="273">
       <x:c r="A273" s="17" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S3\ME</x:t>
+          <x:t>H2495_FRA\H2495\S3\EOBO\ME</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -16503,7 +16503,7 @@
     <x:row r="527">
       <x:c r="A527" s="21" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S3\MA</x:t>
+          <x:t>H2495_FRA\H2495\S3\EOBO\MA</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -23803,7 +23803,7 @@
     <x:row r="758">
       <x:c r="A758" s="25" t="inlineStr">
         <x:is>
-          <x:t>H2495_FRA\H2495\S3\LA</x:t>
+          <x:t>H2495_FRA\H2495\S3\EOBO\LA</x:t>
         </x:is>
       </x:c>
     </x:row>
